--- a/Document/电机空载试验190525.xlsx
+++ b/Document/电机空载试验190525.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94A3F77-FF68-4A64-A3DC-C54B00B98A82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4B9615-E7A2-4BD6-BB09-C52B1AD37C64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="19V" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -948,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE211EBF-0759-4B09-AB5A-005ADDB110B4}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
